--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510149.9060699446</v>
+        <v>512089.9859397275</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592087</v>
+        <v>925407.278659208</v>
       </c>
     </row>
     <row r="8">
@@ -656,67 +658,67 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>264.3952212715415</v>
+      </c>
+      <c r="D2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V2" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>81.3376113647972</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>174.0731454704993</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>90.07428171382941</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>35.70559250379693</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>242.2819443339098</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1139,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>35.70559250379682</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2838073416025</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="G8" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="I8" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36.36486963835932</v>
+      </c>
+      <c r="H11" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F11" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="T12" t="n">
         <v>198.3825319082687</v>
@@ -1509,7 +1511,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>145.8355658494302</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,64 +1618,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S14" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T14" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U14" t="n">
+        <v>219.4759005688517</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G14" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>35.80989422327546</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>125.9059726800905</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.15457984420474</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="F17" t="n">
-        <v>168.1385771445223</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G17" t="n">
         <v>274.2838073416025</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>168.2550708811853</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>154.2141932558485</v>
+        <v>52.95062761045449</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,16 +2219,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2263,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>11.57657371040602</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>264.3952212715415</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>58.53026954800207</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="X23" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>16.71480845983394</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>205.0305299076875</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>18.62406031006297</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X26" t="n">
-        <v>274.2838073416025</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>134.012315718956</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>159.5028127661658</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>178.9131266416084</v>
+        <v>5.521978971826089</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S29" t="n">
+        <v>99.07907767104376</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="V29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>159.43459695682</v>
       </c>
       <c r="C30" t="n">
-        <v>82.12808955468941</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -2886,10 +2888,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="C32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="X32" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>154.2141932558485</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>17.76425168466123</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>17.27905463269151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>168.1385771445223</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>274.2838073416025</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3399,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>174.4097407145713</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3411,7 +3413,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3506,64 +3508,64 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>240.9299003719209</v>
+      </c>
+      <c r="W38" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>3.384156787170543</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>35.70559250379693</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0.6592771345624158</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.0300342561407</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="43">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.5891775064833</v>
+        <v>240.9299003719209</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,16 +4064,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>122.313437688747</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>18.21955851848974</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.0808785163064</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="C2" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D2" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E2" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F2" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G2" t="n">
         <v>21.9427045873282</v>
@@ -4337,7 +4339,7 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
         <v>815.0204133003602</v>
@@ -4361,19 +4363,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.13522936641</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.13522936641</v>
+        <v>566.0629355096959</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>890.6083307719874</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4410,16 +4412,16 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O3" t="n">
         <v>817.386591515115</v>
@@ -4431,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X3" t="n">
-        <v>890.6083307719874</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y3" t="n">
-        <v>890.6083307719874</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="I4" t="n">
-        <v>111.6789115850847</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>784.014623461966</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4589,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4649,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>29.88839882768988</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
+        <v>168.577974491964</v>
+      </c>
+      <c r="M6" t="n">
         <v>277.9660032696079</v>
-      </c>
-      <c r="M6" t="n">
-        <v>549.5069725377944</v>
       </c>
       <c r="N6" t="n">
         <v>549.5069725377944</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.13522936641</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.13522936641</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D8" t="n">
-        <v>1097.13522936641</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E8" t="n">
-        <v>1061.06897431207</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F8" t="n">
-        <v>784.014623461966</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G8" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4844,10 +4846,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1097.13522936641</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L9" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M9" t="n">
-        <v>627.0237902632265</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N9" t="n">
-        <v>898.564759531413</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4914,19 +4916,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="J10" t="n">
         <v>21.9427045873282</v>
@@ -4981,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5026,16 @@
         <v>543.0265276662028</v>
       </c>
       <c r="E11" t="n">
-        <v>265.9721768160992</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F11" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="H11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I11" t="n">
         <v>21.9427045873282</v>
@@ -5042,7 +5044,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
         <v>345.6915471007954</v>
@@ -5075,13 +5077,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V11" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W11" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X11" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y11" t="n">
         <v>820.0808785163064</v>
@@ -5118,43 +5120,43 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K12" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L12" t="n">
-        <v>277.9660032696079</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M12" t="n">
-        <v>549.5069725377944</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N12" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O12" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P12" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838487</v>
+        <v>936.0212770773536</v>
       </c>
       <c r="T12" t="n">
-        <v>630.4290419169106</v>
+        <v>735.6348812104155</v>
       </c>
       <c r="U12" t="n">
-        <v>403.5026004348891</v>
+        <v>508.7084397283941</v>
       </c>
       <c r="V12" t="n">
-        <v>169.25135696049</v>
+        <v>274.4571962539949</v>
       </c>
       <c r="W12" t="n">
         <v>21.9427045873282</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I13" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="J13" t="n">
         <v>21.9427045873282</v>
@@ -5218,31 +5220,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C14" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D14" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E14" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F14" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G14" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H14" t="n">
         <v>21.9427045873282</v>
@@ -5279,19 +5281,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5300,28 +5302,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T14" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="V14" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W14" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X14" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y14" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>630.4290419169106</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="C15" t="n">
-        <v>630.4290419169106</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D15" t="n">
-        <v>630.4290419169106</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E15" t="n">
         <v>503.251291735001</v>
@@ -5361,46 +5363,46 @@
         <v>29.3360154338131</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4136198757311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M15" t="n">
-        <v>548.9545891439176</v>
+        <v>300.8769847019996</v>
       </c>
       <c r="N15" t="n">
-        <v>820.4955584121041</v>
+        <v>572.4179539701861</v>
       </c>
       <c r="O15" t="n">
-        <v>898.564759531413</v>
+        <v>840.2975729475068</v>
       </c>
       <c r="P15" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U15" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V15" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W15" t="n">
-        <v>630.4290419169106</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X15" t="n">
-        <v>630.4290419169106</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="Y15" t="n">
-        <v>630.4290419169106</v>
+        <v>844.6207376997432</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="I16" t="n">
         <v>21.9427045873282</v>
@@ -5455,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E17" t="n">
-        <v>953.8515700725947</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F17" t="n">
         <v>784.014623461966</v>
@@ -5537,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>660.8608207321463</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C18" t="n">
-        <v>660.8608207321463</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D18" t="n">
         <v>660.8608207321463</v>
@@ -5604,40 +5606,40 @@
         <v>541.5612782974326</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O18" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>660.8608207321463</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>660.8608207321463</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V18" t="n">
-        <v>660.8608207321463</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W18" t="n">
-        <v>660.8608207321463</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X18" t="n">
-        <v>660.8608207321463</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="Y18" t="n">
-        <v>660.8608207321463</v>
+        <v>981.2022424513852</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E19" t="n">
-        <v>54.20381819178192</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F19" t="n">
-        <v>54.20381819178192</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G19" t="n">
-        <v>54.20381819178192</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H19" t="n">
-        <v>54.20381819178192</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I19" t="n">
         <v>21.9427045873282</v>
@@ -5698,25 +5700,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>298.9970554374318</v>
+        <v>745.907174392252</v>
       </c>
       <c r="C20" t="n">
-        <v>21.9427045873282</v>
+        <v>745.907174392252</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9427045873282</v>
+        <v>745.907174392252</v>
       </c>
       <c r="E20" t="n">
-        <v>21.9427045873282</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="G20" t="n">
         <v>21.9427045873282</v>
@@ -5759,13 +5761,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P20" t="n">
         <v>1093.116282134284</v>
@@ -5774,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U20" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W20" t="n">
-        <v>853.1057571376389</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X20" t="n">
-        <v>853.1057571376389</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y20" t="n">
-        <v>576.0514062875353</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>177.7146169669732</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="C21" t="n">
-        <v>21.9427045873282</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="D21" t="n">
-        <v>21.9427045873282</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5829,52 +5831,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M21" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U21" t="n">
-        <v>870.2087878843885</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V21" t="n">
-        <v>635.9575444099894</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="W21" t="n">
-        <v>383.4430527433227</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="X21" t="n">
-        <v>383.4430527433227</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.7146169669732</v>
+        <v>774.5572931762155</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="D22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="E22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="F22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="G22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.0085846595923</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C23" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D23" t="n">
         <v>21.9427045873282</v>
@@ -6011,28 +6013,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R23" t="n">
-        <v>1097.13522936641</v>
+        <v>1038.013744974489</v>
       </c>
       <c r="S23" t="n">
-        <v>1097.13522936641</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="T23" t="n">
-        <v>1097.13522936641</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="U23" t="n">
-        <v>843.1172863597994</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V23" t="n">
-        <v>843.1172863597994</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W23" t="n">
-        <v>566.0629355096959</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X23" t="n">
-        <v>289.0085846595923</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y23" t="n">
-        <v>289.0085846595923</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.9427045873282</v>
+        <v>211.5794645744342</v>
       </c>
       <c r="C24" t="n">
-        <v>21.9427045873282</v>
+        <v>38.82634949625137</v>
       </c>
       <c r="D24" t="n">
         <v>21.9427045873282</v>
@@ -6066,16 +6068,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L24" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M24" t="n">
-        <v>549.5069725377944</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N24" t="n">
         <v>549.5069725377944</v>
@@ -6102,16 +6104,16 @@
         <v>669.8223920174504</v>
       </c>
       <c r="V24" t="n">
-        <v>435.5711485430513</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="W24" t="n">
-        <v>228.4696031817507</v>
+        <v>417.3079003507837</v>
       </c>
       <c r="X24" t="n">
-        <v>21.9427045873282</v>
+        <v>417.3079003507837</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.9427045873282</v>
+        <v>211.5794645744342</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L25" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M25" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N25" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C26" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D26" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E26" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F26" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G26" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6230,19 +6232,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L26" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N26" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O26" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P26" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q26" t="n">
         <v>1097.13522936641</v>
@@ -6257,19 +6259,19 @@
         <v>871.9179392690156</v>
       </c>
       <c r="U26" t="n">
-        <v>871.9179392690156</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V26" t="n">
-        <v>871.9179392690156</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W26" t="n">
-        <v>871.9179392690156</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="X26" t="n">
-        <v>594.8635884189121</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y26" t="n">
-        <v>317.8092375688085</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>453.862424813772</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C27" t="n">
-        <v>281.1093097355891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D27" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E27" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F27" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G27" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H27" t="n">
         <v>21.9427045873282</v>
@@ -6306,19 +6308,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M27" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N27" t="n">
-        <v>820.4955584121041</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O27" t="n">
-        <v>1088.375177389425</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6327,28 +6329,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>866.117759184544</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>866.117759184544</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U27" t="n">
-        <v>866.117759184544</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V27" t="n">
-        <v>866.117759184544</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W27" t="n">
-        <v>866.117759184544</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X27" t="n">
-        <v>659.5908605901215</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="Y27" t="n">
-        <v>453.862424813772</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M28" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N28" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O28" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R28" t="n">
-        <v>202.6630345283467</v>
+        <v>921.9926559625894</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>576.0514062875353</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
@@ -6485,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S29" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="T29" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="U29" t="n">
-        <v>853.1057571376389</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="V29" t="n">
-        <v>576.0514062875353</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W29" t="n">
-        <v>576.0514062875353</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X29" t="n">
-        <v>576.0514062875353</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y29" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>891.4067935900604</v>
+        <v>477.0487916741894</v>
       </c>
       <c r="C30" t="n">
-        <v>808.4491273732024</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="D30" t="n">
-        <v>660.8608207321463</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="E30" t="n">
-        <v>503.251291735001</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2955017516178</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H30" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
@@ -6543,13 +6545,13 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L30" t="n">
-        <v>270.0203090292462</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M30" t="n">
-        <v>541.5612782974326</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N30" t="n">
         <v>630.6851405540922</v>
@@ -6579,13 +6581,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W30" t="n">
-        <v>1097.13522936641</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X30" t="n">
-        <v>1097.13522936641</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="Y30" t="n">
-        <v>891.4067935900604</v>
+        <v>638.0938391053207</v>
       </c>
     </row>
     <row r="31">
@@ -6646,22 +6648,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y31" t="n">
         <v>21.9427045873282</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C32" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D32" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E32" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F32" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G32" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
         <v>21.9427045873282</v>
@@ -6737,13 +6739,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W32" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="Y32" t="n">
         <v>820.0808785163064</v>
-      </c>
-      <c r="X32" t="n">
-        <v>543.0265276662028</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>499.8936553037125</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C33" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
         <v>21.9427045873282</v>
@@ -6777,25 +6779,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L33" t="n">
-        <v>277.9660032696079</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M33" t="n">
-        <v>277.9660032696079</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N33" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O33" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6807,22 +6809,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>1097.13522936641</v>
+        <v>941.363316986765</v>
       </c>
       <c r="U33" t="n">
-        <v>1097.13522936641</v>
+        <v>714.4368755047435</v>
       </c>
       <c r="V33" t="n">
-        <v>1097.13522936641</v>
+        <v>480.1856320303444</v>
       </c>
       <c r="W33" t="n">
-        <v>1079.191540796045</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6646422016225</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y33" t="n">
-        <v>666.936206425273</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>39.39629512540043</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6950,7 +6952,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P35" t="n">
         <v>1093.116282134284</v>
@@ -6959,28 +6961,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W35" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X35" t="n">
-        <v>576.0514062875353</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.9970554374318</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="C36" t="n">
         <v>21.9427045873282</v>
@@ -7014,16 +7016,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>416.655578933882</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N36" t="n">
         <v>630.6851405540922</v>
@@ -7047,19 +7049,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>920.9637740991661</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V36" t="n">
-        <v>686.7125306247669</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W36" t="n">
-        <v>434.1980389581003</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X36" t="n">
-        <v>227.6711403636777</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
     </row>
     <row r="37">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>543.0265276662028</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="C38" t="n">
-        <v>543.0265276662028</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="D38" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="E38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
@@ -7208,16 +7210,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y38" t="n">
-        <v>820.0808785163064</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>981.2022424513852</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C39" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M39" t="n">
-        <v>548.9545891439176</v>
+        <v>293.4836738555147</v>
       </c>
       <c r="N39" t="n">
-        <v>549.5069725377944</v>
+        <v>565.0246431237011</v>
       </c>
       <c r="O39" t="n">
-        <v>817.386591515115</v>
+        <v>832.9042621010219</v>
       </c>
       <c r="P39" t="n">
         <v>1015.957061350112</v>
@@ -7281,22 +7283,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>1097.13522936641</v>
+        <v>1093.716889177349</v>
       </c>
       <c r="U39" t="n">
-        <v>1097.13522936641</v>
+        <v>1093.716889177349</v>
       </c>
       <c r="V39" t="n">
-        <v>1097.13522936641</v>
+        <v>859.4656457029497</v>
       </c>
       <c r="W39" t="n">
-        <v>1097.13522936641</v>
+        <v>606.951154036283</v>
       </c>
       <c r="X39" t="n">
-        <v>1097.13522936641</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y39" t="n">
-        <v>1097.13522936641</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="40">
@@ -7363,10 +7365,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W40" t="n">
         <v>916.4148994253914</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C41" t="n">
-        <v>506.9602726118625</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="D41" t="n">
-        <v>506.9602726118625</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="E41" t="n">
-        <v>506.9602726118625</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F41" t="n">
-        <v>506.9602726118625</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G41" t="n">
-        <v>506.9602726118625</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
         <v>22.60864108688619</v>
@@ -7451,10 +7453,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X41" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y41" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>549.2825222249414</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>549.2825222249414</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>549.2825222249414</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>391.6729932277962</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>246.717203244413</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I42" t="n">
         <v>21.9427045873282</v>
@@ -7503,10 +7505,10 @@
         <v>813.1022475656191</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.957061350112</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P42" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
@@ -7515,25 +7517,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>726.0805366250836</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V42" t="n">
-        <v>726.0805366250836</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W42" t="n">
-        <v>726.0805366250836</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X42" t="n">
-        <v>726.0805366250836</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y42" t="n">
-        <v>549.2825222249414</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>298.9970554374318</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C44" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D44" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E44" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F44" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G44" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
@@ -7661,7 +7663,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536996</v>
       </c>
       <c r="P44" t="n">
         <v>1093.116282134284</v>
@@ -7685,13 +7687,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W44" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.9970554374318</v>
+        <v>853.7716936371969</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>169.5310112283843</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="C45" t="n">
-        <v>169.5310112283843</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9427045873282</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F45" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H45" t="n">
         <v>21.9427045873282</v>
@@ -7740,37 +7742,37 @@
         <v>813.1022475656191</v>
       </c>
       <c r="O45" t="n">
-        <v>1015.957061350112</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P45" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q45" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>1001.483734658237</v>
+        <v>973.5863024080796</v>
       </c>
       <c r="U45" t="n">
-        <v>1001.483734658237</v>
+        <v>973.5863024080796</v>
       </c>
       <c r="V45" t="n">
-        <v>767.2324911838377</v>
+        <v>973.5863024080796</v>
       </c>
       <c r="W45" t="n">
-        <v>748.8288967207168</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="X45" t="n">
-        <v>542.3019981262943</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="Y45" t="n">
-        <v>336.5735623499448</v>
+        <v>721.0718107414129</v>
       </c>
     </row>
     <row r="46">
@@ -7985,10 +7987,10 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>454.8408013884635</v>
+        <v>454.8408013884634</v>
       </c>
       <c r="O2" t="n">
         <v>396.0321885132552</v>
@@ -8058,7 +8060,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
@@ -8067,10 +8069,10 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>128.6161323053679</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
@@ -8234,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8295,16 +8297,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>134.953366024118</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155703</v>
+        <v>249.0736414352243</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8471,7 +8473,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8529,7 +8531,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>275.0438464930818</v>
@@ -8538,19 +8540,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>351.0738258308815</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>269.7194869079138</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8690,10 +8692,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
@@ -8766,19 +8768,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>245.5834786466338</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8787,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8927,7 +8929,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9009,7 +9011,7 @@
         <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
         <v>412.8644904155703</v>
@@ -9018,13 +9020,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>217.8891172417261</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>308.0588738982702</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9182,7 +9184,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9252,7 +9254,7 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>218.0822725708051</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9261,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9486,7 +9488,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>354.7721594580186</v>
+        <v>280.2420007006317</v>
       </c>
       <c r="N21" t="n">
         <v>128.05816928125</v>
@@ -9498,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,19 +9716,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>272.7740099466066</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9954,7 +9956,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9963,13 +9965,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>402.3419766228525</v>
+        <v>340.5513120381636</v>
       </c>
       <c r="O27" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10130,7 +10132,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10191,16 +10193,16 @@
         <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>338.5397817006614</v>
       </c>
       <c r="N30" t="n">
-        <v>218.0822725708051</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10425,16 +10427,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>245.5834786466338</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>338.5397817006614</v>
       </c>
       <c r="N33" t="n">
         <v>402.3419766228525</v>
@@ -10446,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10598,7 +10600,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O35" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P35" t="n">
         <v>334.6706564983419</v>
@@ -10662,19 +10664,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>344.2496456653007</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,25 +10901,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
         <v>134.395403</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>128.6161323053679</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>315.5268646522953</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11151,13 +11153,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O42" t="n">
-        <v>343.9351906409019</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11315,7 +11317,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11388,13 +11390,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O45" t="n">
-        <v>343.9351906409019</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>102.5898744074012</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E2" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2655878973476</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -22601,10 +22603,10 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -22626,25 +22628,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>89.68797256260379</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>57.83558556915582</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>63.68426508357422</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22795,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>371.5882709767439</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>86.25127718860955</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
@@ -22850,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -23027,22 +23029,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>347.4124432514906</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389384</v>
+        <v>165.7046859740575</v>
       </c>
       <c r="G8" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>63.68426508357422</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23264,19 +23266,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>165.7046859740575</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>378.4898957654716</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23315,7 +23317,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23324,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="12">
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>9.458801139478624</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>104.1537809005699</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -23434,10 +23436,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>63.68426508357422</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>14.77440971783335</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
@@ -23504,13 +23506,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
         <v>205.224307868124</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>32.00186300769272</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23558,10 +23560,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="15">
@@ -23574,13 +23576,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>135.2156897041255</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.12746102708336</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
         <v>224.6571770672012</v>
@@ -23634,7 +23636,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23665,13 +23667,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>142.7350090859033</v>
       </c>
       <c r="H16" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>88.83884492777894</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23738,10 +23740,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>347.4124432514906</v>
       </c>
       <c r="F17" t="n">
-        <v>239.1552863360185</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G17" t="n">
         <v>140.5709580622284</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
         <v>205.8649517235392</v>
@@ -23811,10 +23813,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>30.12746102708334</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
         <v>224.6571770672012</v>
@@ -23874,7 +23876,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>89.68797256260383</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -23896,7 +23898,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -23908,7 +23910,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I19" t="n">
-        <v>121.8200443289944</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J19" t="n">
         <v>88.83884492777894</v>
@@ -23938,7 +23940,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>246.6975549801614</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>222.9651171964204</v>
@@ -24029,13 +24031,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24050,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>16.81139067155246</v>
+        <v>118.0749563169465</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
@@ -24105,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.170564849075419</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24151,7 +24153,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K22" t="n">
-        <v>14.77440971783335</v>
+        <v>3.197836007427327</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24206,10 +24208,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>102.5898744074012</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24251,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>83.32055315287501</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>222.9651171964204</v>
@@ -24266,13 +24268,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="24">
@@ -24285,10 +24287,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>129.3976151148116</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24342,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>44.9588168423125</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24417,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U25" t="n">
         <v>286.0522703910642</v>
@@ -24427,7 +24429,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070087</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24458,7 +24460,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
-        <v>319.5198430780904</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24497,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X26" t="n">
-        <v>96.5777917895669</v>
+        <v>329.4314950560484</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -24537,7 +24539,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
         <v>86.50354346547167</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>34.94929818668837</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>44.16833865242023</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24648,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>216.8354279895964</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C29" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -24689,7 +24691,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>414.8547654038309</v>
@@ -24701,7 +24703,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>106.7858740524955</v>
       </c>
       <c r="T29" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>5.937528653524851</v>
       </c>
       <c r="C30" t="n">
-        <v>88.89749437271158</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24819,13 +24821,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24888,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T31" t="n">
         <v>228.3324659915077</v>
@@ -24904,7 +24906,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.4326026497926</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
@@ -24926,13 +24928,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G32" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24977,13 +24979,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25047,19 +25049,19 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>44.16833865242018</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>232.2250950653388</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>153.7585467974036</v>
+        <v>136.4794921647121</v>
       </c>
       <c r="J34" t="n">
         <v>88.83884492777894</v>
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>215.5778328468727</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25166,16 +25168,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -25214,10 +25216,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>112.4032644096333</v>
@@ -25233,7 +25235,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>17.6018688614447</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -25287,7 +25289,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>50.24743635262988</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -25394,10 +25396,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25412,7 +25414,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25448,10 +25450,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,22 +25523,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>194.9983751210981</v>
       </c>
       <c r="U39" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,13 +25605,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25628,25 +25630,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>331.2795031751457</v>
+        <v>126.0551953070217</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25713,19 +25715,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.64111716244528</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="43">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -25880,13 +25882,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.0978942447525</v>
+        <v>145.7571713793149</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -25950,16 +25952,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>86.50354346547167</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>76.06909421952169</v>
       </c>
       <c r="U45" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>231.7697882315103</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502281.7567297171</v>
+        <v>502281.7567297172</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>502281.7567297173</v>
+        <v>502281.7567297172</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502281.7567297172</v>
+        <v>502281.7567297173</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502281.7567297172</v>
+        <v>502281.7567297171</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502281.7567297173</v>
+        <v>502281.7567297172</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>502281.7567297172</v>
+        <v>502281.7567297173</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>502281.7567297173</v>
+        <v>502281.7567297172</v>
       </c>
     </row>
     <row r="14">
@@ -26335,7 +26337,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="J2" t="n">
-        <v>112565.1304975279</v>
+        <v>112565.130497528</v>
       </c>
       <c r="K2" t="n">
         <v>112565.130497528</v>
@@ -26350,10 +26352,10 @@
         <v>112565.130497528</v>
       </c>
       <c r="O2" t="n">
-        <v>112565.1304975279</v>
+        <v>112565.130497528</v>
       </c>
       <c r="P2" t="n">
-        <v>112565.1304975279</v>
+        <v>112565.130497528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8932.273136504817</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="C4" t="n">
-        <v>8932.273136504817</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="D4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="E4" t="n">
+        <v>8932.273136504817</v>
+      </c>
+      <c r="F4" t="n">
         <v>8932.273136504818</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>8932.273136504817</v>
+      </c>
+      <c r="H4" t="n">
         <v>8932.27313650482</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8932.273136504818</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8932.273136504818</v>
       </c>
       <c r="I4" t="n">
         <v>8932.273136504817</v>
       </c>
       <c r="J4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="K4" t="n">
         <v>8932.273136504818</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38590.01049308611</v>
+        <v>-38590.01049308608</v>
       </c>
       <c r="C6" t="n">
-        <v>53328.80187465371</v>
+        <v>53328.80187465373</v>
       </c>
       <c r="D6" t="n">
-        <v>53328.80187465371</v>
+        <v>53328.80187465373</v>
       </c>
       <c r="E6" t="n">
-        <v>86956.40187465373</v>
+        <v>86956.40187465375</v>
       </c>
       <c r="F6" t="n">
-        <v>86956.4018746537</v>
+        <v>86956.40187465372</v>
       </c>
       <c r="G6" t="n">
-        <v>86956.4018746537</v>
+        <v>86956.40187465375</v>
       </c>
       <c r="H6" t="n">
         <v>86956.40187465373</v>
       </c>
       <c r="I6" t="n">
-        <v>86956.40187465376</v>
+        <v>86956.40187465373</v>
       </c>
       <c r="J6" t="n">
-        <v>15191.68938656746</v>
+        <v>15191.68938656749</v>
       </c>
       <c r="K6" t="n">
+        <v>86956.40187465375</v>
+      </c>
+      <c r="L6" t="n">
+        <v>86956.40187465375</v>
+      </c>
+      <c r="M6" t="n">
         <v>86956.40187465373</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>86956.40187465372</v>
+      </c>
+      <c r="O6" t="n">
         <v>86956.40187465373</v>
       </c>
-      <c r="M6" t="n">
-        <v>86956.40187465376</v>
-      </c>
-      <c r="N6" t="n">
-        <v>86956.40187465373</v>
-      </c>
-      <c r="O6" t="n">
-        <v>86956.4018746537</v>
-      </c>
       <c r="P6" t="n">
-        <v>86956.4018746537</v>
+        <v>86956.40187465375</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34707,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
         <v>231.1630643817873</v>
@@ -34778,7 +34780,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
@@ -34787,10 +34789,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5579630241179461</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
@@ -34954,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5579630241179641</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>110.4929583612564</v>
+      </c>
+      <c r="N6" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35191,7 +35193,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>140.6484434930818</v>
@@ -35258,19 +35260,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>212.4931427569136</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M11" t="n">
         <v>242.9064974359549</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110.4929583612564</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O12" t="n">
         <v>270.5854737144654</v>
@@ -35507,7 +35509,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L14" t="n">
         <v>204.4954085367308</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>274.2838073416025</v>
@@ -35738,13 +35740,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
-        <v>78.85777890839283</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5762321565626</v>
+        <v>177.4338266692982</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>90.0241032895551</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
@@ -35981,7 +35983,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
@@ -36206,7 +36208,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>216.1914763840507</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36674,7 +36676,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
@@ -36683,13 +36685,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2838073416025</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="O27" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>199.9590986266935</v>
+      </c>
+      <c r="N30" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N30" t="n">
-        <v>90.0241032895551</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>110.4929583612564</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>199.9590986266935</v>
       </c>
       <c r="N33" t="n">
         <v>274.2838073416025</v>
@@ -37166,7 +37168,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O35" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P35" t="n">
         <v>109.2184856369541</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>216.1914763840507</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>0.5579630241179461</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>184.9018174233233</v>
       </c>
       <c r="Q39" t="n">
         <v>81.99814951141209</v>
@@ -37871,13 +37873,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O42" t="n">
-        <v>204.9038523075686</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O45" t="n">
-        <v>204.9038523075686</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>512089.9859397275</v>
+        <v>414258.7935436831</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.278659208</v>
+        <v>925407.2786592083</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C2" t="n">
-        <v>264.3952212715415</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>174.0731454704993</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>127.7549501390853</v>
       </c>
     </row>
     <row r="4">
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>218.8166234342893</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>5.448126808926983</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>5.52197897182606</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="F8" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>274.2838073416025</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="U9" t="n">
-        <v>174.4097407145713</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -1280,7 +1280,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>90.07428171382941</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,67 +1378,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>36.36486963835932</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="I11" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>274.2838073416025</v>
+        <v>99.73835480560622</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>159.5028127661658</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>224.6571770672012</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>117.0779413386977</v>
       </c>
     </row>
     <row r="13">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.07428171382941</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>151.0570449507884</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>219.4759005688517</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>35.80989422327546</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>18.77877848159052</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,61 +1852,61 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.70559250379682</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T17" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="I17" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>87.04291592812621</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.384156787170543</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>114.7736570458744</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2089,67 +2089,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40.77082694055858</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U20" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G20" t="n">
-        <v>168.1572104236695</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>141.8508227008771</v>
-      </c>
-      <c r="S20" t="n">
-        <v>205.8649517235392</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>52.95062761045449</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>11.57657371040602</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.53026954800207</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
         <v>251.4777635765444</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>16.71480845983394</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="25">
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>58.53026954800218</v>
+      </c>
+      <c r="X26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="X26" t="n">
-        <v>41.43010407512099</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2699,10 +2699,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>159.5028127661658</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>5.521978971826089</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>99.07907767104376</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>159.43459695682</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>99.07907767104376</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>154.2141932558485</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>215.0973403681026</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.27905463269151</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>168.1385771445223</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>150.397767816226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0.6592771345624158</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>153.4237150659563</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>54.99097162890175</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>240.9299003719209</v>
+        <v>218.8166234342893</v>
       </c>
       <c r="W38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>3.384156787170543</v>
+        <v>12.69968078138093</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>240.9299003719209</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>99.07907767104376</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>10.63571075962438</v>
       </c>
       <c r="U42" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3887,7 +3887,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>153.4237150659563</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.6226671993474</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>122.313437688747</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>89.18046425217999</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.0629355096959</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C2" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D2" t="n">
         <v>21.9427045873282</v>
@@ -4333,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4363,19 +4363,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>843.1172863597994</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>566.0629355096959</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="W2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="X2" t="n">
-        <v>566.0629355096959</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.0629355096959</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>688.1965482020685</v>
+        <v>627.0237902632265</v>
       </c>
       <c r="N3" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4445,13 +4445,13 @@
         <v>403.5026004348891</v>
       </c>
       <c r="V3" t="n">
-        <v>227.6711403636777</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="W3" t="n">
-        <v>227.6711403636777</v>
+        <v>150.9881087682224</v>
       </c>
       <c r="X3" t="n">
-        <v>227.6711403636777</v>
+        <v>150.9881087682224</v>
       </c>
       <c r="Y3" t="n">
         <v>21.9427045873282</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4512,28 +4512,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4579,10 +4579,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4600,19 +4600,19 @@
         <v>520.6898842948577</v>
       </c>
       <c r="U5" t="n">
-        <v>266.6719412882472</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V5" t="n">
-        <v>21.9427045873282</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W5" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X5" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>168.577974491964</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>277.9660032696079</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N6" t="n">
         <v>549.5069725377944</v>
@@ -4673,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y6" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4746,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>197.0852779911487</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>543.0265276662028</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="C8" t="n">
-        <v>543.0265276662028</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="D8" t="n">
-        <v>543.0265276662028</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="E8" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F8" t="n">
         <v>298.9970554374318</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X8" t="n">
-        <v>820.0808785163064</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y8" t="n">
-        <v>543.0265276662028</v>
+        <v>520.6898842948577</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M9" t="n">
-        <v>409.2622680873972</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N9" t="n">
         <v>549.5069725377944</v>
@@ -4913,19 +4913,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U9" t="n">
-        <v>920.9637740991661</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V9" t="n">
-        <v>686.7125306247669</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W9" t="n">
-        <v>434.1980389581003</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X9" t="n">
-        <v>227.6711403636777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y9" t="n">
         <v>21.9427045873282</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
         <v>21.9427045873282</v>
@@ -4998,16 +4998,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C11" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D11" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E11" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F11" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G11" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
         <v>21.9427045873282</v>
@@ -5047,16 +5047,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5065,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X11" t="n">
-        <v>1097.13522936641</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y11" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D12" t="n">
         <v>21.9427045873282</v>
@@ -5132,10 +5132,10 @@
         <v>541.5612782974326</v>
       </c>
       <c r="N12" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O12" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P12" t="n">
         <v>1097.13522936641</v>
@@ -5144,28 +5144,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S12" t="n">
-        <v>936.0212770773536</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T12" t="n">
-        <v>735.6348812104155</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U12" t="n">
-        <v>508.7084397283941</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V12" t="n">
-        <v>274.4571962539949</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W12" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X12" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5310112283843</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
         <v>21.9427045873282</v>
@@ -5232,19 +5232,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.9427045873282</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9427045873282</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="D14" t="n">
-        <v>21.9427045873282</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F14" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G14" t="n">
         <v>21.9427045873282</v>
@@ -5281,10 +5281,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M14" t="n">
         <v>586.1689795623907</v>
@@ -5305,25 +5305,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T14" t="n">
-        <v>520.6898842948577</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U14" t="n">
-        <v>298.9970554374318</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V14" t="n">
-        <v>298.9970554374318</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W14" t="n">
-        <v>298.9970554374318</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X14" t="n">
-        <v>298.9970554374318</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.9427045873282</v>
+        <v>728.6342799752003</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>844.6207376997432</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C15" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D15" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E15" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
@@ -5360,19 +5360,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K15" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L15" t="n">
-        <v>29.3360154338131</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M15" t="n">
-        <v>300.8769847019996</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N15" t="n">
-        <v>572.4179539701861</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O15" t="n">
-        <v>840.2975729475068</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P15" t="n">
         <v>1015.957061350112</v>
@@ -5384,25 +5384,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T15" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U15" t="n">
-        <v>1097.13522936641</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V15" t="n">
-        <v>1097.13522936641</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="W15" t="n">
-        <v>844.6207376997432</v>
+        <v>246.6396034763954</v>
       </c>
       <c r="X15" t="n">
-        <v>844.6207376997432</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y15" t="n">
-        <v>844.6207376997432</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>177.254368019049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>177.254368019049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
         <v>21.9427045873282</v>
@@ -5469,19 +5469,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.06897431207</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>784.014623461966</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G17" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
@@ -5542,25 +5542,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>981.2022424513852</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C18" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L18" t="n">
-        <v>270.0203090292462</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M18" t="n">
-        <v>541.5612782974326</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N18" t="n">
-        <v>549.5069725377944</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O18" t="n">
-        <v>817.386591515115</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P18" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
@@ -5621,25 +5621,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>1097.13522936641</v>
+        <v>1093.716889177349</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.13522936641</v>
+        <v>1093.716889177349</v>
       </c>
       <c r="U18" t="n">
-        <v>1097.13522936641</v>
+        <v>1093.716889177349</v>
       </c>
       <c r="V18" t="n">
-        <v>1097.13522936641</v>
+        <v>859.4656457029497</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.13522936641</v>
+        <v>606.951154036283</v>
       </c>
       <c r="X18" t="n">
-        <v>981.2022424513852</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y18" t="n">
-        <v>981.2022424513852</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D19" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E19" t="n">
         <v>21.9427045873282</v>
@@ -5700,25 +5700,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>745.907174392252</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="C20" t="n">
-        <v>745.907174392252</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="D20" t="n">
-        <v>745.907174392252</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="E20" t="n">
-        <v>468.8528235421485</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="F20" t="n">
-        <v>191.7984726920449</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I20" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J20" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K20" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L20" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P20" t="n">
         <v>1093.116282134284</v>
@@ -5776,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>745.907174392252</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U20" t="n">
-        <v>745.907174392252</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V20" t="n">
-        <v>745.907174392252</v>
+        <v>617.899996262405</v>
       </c>
       <c r="W20" t="n">
-        <v>745.907174392252</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="X20" t="n">
-        <v>745.907174392252</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="Y20" t="n">
-        <v>745.907174392252</v>
+        <v>63.79129456219789</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>774.5572931762155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C21" t="n">
-        <v>721.0718107414129</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D21" t="n">
-        <v>573.4835041003568</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5831,25 +5831,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>549.5069725377944</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N21" t="n">
-        <v>549.5069725377944</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O21" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P21" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
@@ -5867,16 +5867,16 @@
         <v>774.5572931762155</v>
       </c>
       <c r="V21" t="n">
-        <v>774.5572931762155</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W21" t="n">
-        <v>774.5572931762155</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X21" t="n">
-        <v>774.5572931762155</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y21" t="n">
-        <v>774.5572931762155</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="C22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K22" t="n">
         <v>21.9427045873282</v>
@@ -5934,28 +5934,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="X22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="C23" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="D23" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="E23" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="F23" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="G23" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="C23" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="D23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="F23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="G23" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="H23" t="n">
         <v>21.9427045873282</v>
@@ -6013,19 +6013,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R23" t="n">
-        <v>1038.013744974489</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S23" t="n">
-        <v>830.0693492941459</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>830.0693492941459</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U23" t="n">
-        <v>576.0514062875353</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V23" t="n">
-        <v>576.0514062875353</v>
+        <v>617.899996262405</v>
       </c>
       <c r="W23" t="n">
         <v>576.0514062875353</v>
@@ -6034,7 +6034,7 @@
         <v>576.0514062875353</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9970554374318</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>211.5794645744342</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>38.82634949625137</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
         <v>21.9427045873282</v>
@@ -6071,13 +6071,13 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L24" t="n">
-        <v>270.0203090292462</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M24" t="n">
-        <v>541.5612782974326</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N24" t="n">
         <v>549.5069725377944</v>
@@ -6092,28 +6092,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T24" t="n">
-        <v>896.7488334994719</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U24" t="n">
-        <v>669.8223920174504</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V24" t="n">
-        <v>669.8223920174504</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W24" t="n">
-        <v>417.3079003507837</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X24" t="n">
-        <v>417.3079003507837</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y24" t="n">
-        <v>211.5794645744342</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L25" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M25" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N25" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O25" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L26" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N26" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O26" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P26" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q26" t="n">
         <v>1097.13522936641</v>
@@ -6253,22 +6253,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T26" t="n">
-        <v>871.9179392690156</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U26" t="n">
-        <v>617.899996262405</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="V26" t="n">
-        <v>340.8456454123015</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="W26" t="n">
-        <v>63.79129456219789</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y26" t="n">
         <v>21.9427045873282</v>
@@ -6311,16 +6311,16 @@
         <v>168.577974491964</v>
       </c>
       <c r="L27" t="n">
-        <v>416.655578933882</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M27" t="n">
-        <v>688.1965482020685</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N27" t="n">
-        <v>898.564759531413</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O27" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6335,19 +6335,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>669.8223920174504</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V27" t="n">
-        <v>435.5711485430513</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W27" t="n">
-        <v>183.0566568763846</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X27" t="n">
-        <v>183.0566568763846</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y27" t="n">
         <v>21.9427045873282</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E28" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M28" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O28" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>921.9926559625894</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22.60864108688619</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C29" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D29" t="n">
-        <v>22.60864108688619</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E29" t="n">
-        <v>22.60864108688619</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F29" t="n">
-        <v>22.60864108688619</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G29" t="n">
-        <v>22.60864108688619</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H29" t="n">
         <v>22.60864108688619</v>
@@ -6466,10 +6466,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M29" t="n">
         <v>586.1689795623909</v>
@@ -6487,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V29" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W29" t="n">
-        <v>576.7173427870933</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X29" t="n">
-        <v>576.7173427870933</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y29" t="n">
-        <v>299.6629919369898</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>477.0487916741894</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F30" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G30" t="n">
         <v>21.9427045873282</v>
@@ -6545,10 +6545,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1846636454791</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M30" t="n">
         <v>359.1441712859057</v>
@@ -6566,28 +6566,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="T30" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U30" t="n">
-        <v>1097.13522936641</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V30" t="n">
-        <v>1097.13522936641</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W30" t="n">
-        <v>844.6207376997432</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X30" t="n">
-        <v>638.0938391053207</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y30" t="n">
-        <v>638.0938391053207</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6654,16 +6654,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
         <v>21.9427045873282</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C32" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D32" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E32" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J32" t="n">
         <v>21.9427045873282</v>
@@ -6724,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W32" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="X32" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="Y32" t="n">
-        <v>820.0808785163064</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C33" t="n">
         <v>21.9427045873282</v>
@@ -6782,19 +6782,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1846636454791</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M33" t="n">
-        <v>359.1441712859057</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N33" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O33" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P33" t="n">
         <v>1097.13522936641</v>
@@ -6809,22 +6809,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>941.363316986765</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U33" t="n">
-        <v>714.4368755047435</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V33" t="n">
-        <v>480.1856320303444</v>
+        <v>652.9387471085272</v>
       </c>
       <c r="W33" t="n">
-        <v>227.6711403636777</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="X33" t="n">
-        <v>227.6711403636777</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>39.39629512540043</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
         <v>21.9427045873282</v>
@@ -6885,25 +6885,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.9602726118625</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="C35" t="n">
-        <v>506.9602726118625</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="D35" t="n">
-        <v>506.9602726118625</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E35" t="n">
-        <v>506.9602726118625</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F35" t="n">
-        <v>506.9602726118625</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G35" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H35" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I35" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K35" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M35" t="n">
         <v>586.1689795623909</v>
@@ -6967,22 +6967,22 @@
         <v>953.8515700725947</v>
       </c>
       <c r="T35" t="n">
-        <v>953.8515700725947</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U35" t="n">
-        <v>953.8515700725947</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V35" t="n">
-        <v>953.8515700725947</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W35" t="n">
-        <v>953.8515700725947</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X35" t="n">
-        <v>953.8515700725947</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="Y35" t="n">
-        <v>676.7972192224911</v>
+        <v>451.5799291250968</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.9161541489002</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C36" t="n">
         <v>21.9427045873282</v>
@@ -7025,7 +7025,7 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>541.5612782974326</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N36" t="n">
         <v>630.6851405540922</v>
@@ -7046,22 +7046,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U36" t="n">
-        <v>870.2087878843885</v>
+        <v>841.2023975106822</v>
       </c>
       <c r="V36" t="n">
-        <v>635.9575444099894</v>
+        <v>606.951154036283</v>
       </c>
       <c r="W36" t="n">
-        <v>383.4430527433227</v>
+        <v>606.951154036283</v>
       </c>
       <c r="X36" t="n">
-        <v>176.9161541489002</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.9161541489002</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="37">
@@ -7125,13 +7125,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
         <v>21.9427045873282</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22.6086410868862</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C38" t="n">
-        <v>22.6086410868862</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D38" t="n">
-        <v>22.6086410868862</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E38" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F38" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G38" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H38" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I38" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
@@ -7198,25 +7198,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S38" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T38" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V38" t="n">
-        <v>853.7716936371969</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="W38" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X38" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y38" t="n">
         <v>299.6629919369898</v>
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
         <v>21.9427045873282</v>
@@ -7259,19 +7259,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>21.9427045873282</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>293.4836738555147</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N39" t="n">
-        <v>565.0246431237011</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O39" t="n">
-        <v>832.9042621010219</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P39" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
@@ -7280,25 +7280,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T39" t="n">
-        <v>1093.716889177349</v>
+        <v>913.6389721067884</v>
       </c>
       <c r="U39" t="n">
-        <v>1093.716889177349</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="V39" t="n">
-        <v>859.4656457029497</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W39" t="n">
-        <v>606.951154036283</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>400.4242554418605</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C41" t="n">
-        <v>853.7716936371969</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D41" t="n">
-        <v>853.7716936371969</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E41" t="n">
-        <v>576.7173427870933</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F41" t="n">
-        <v>299.6629919369898</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G41" t="n">
         <v>22.60864108688619</v>
@@ -7435,28 +7435,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T41" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="U41" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="V41" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W41" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X41" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y41" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C42" t="n">
         <v>21.9427045873282</v>
@@ -7502,10 +7502,10 @@
         <v>541.5612782974326</v>
       </c>
       <c r="N42" t="n">
-        <v>813.1022475656191</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>1080.98186654294</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
         <v>1097.13522936641</v>
@@ -7520,22 +7520,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>1097.13522936641</v>
+        <v>1086.392087184971</v>
       </c>
       <c r="U42" t="n">
-        <v>870.2087878843885</v>
+        <v>859.4656457029497</v>
       </c>
       <c r="V42" t="n">
-        <v>635.9575444099894</v>
+        <v>859.4656457029497</v>
       </c>
       <c r="W42" t="n">
-        <v>383.4430527433227</v>
+        <v>606.951154036283</v>
       </c>
       <c r="X42" t="n">
-        <v>176.9161541489002</v>
+        <v>400.4242554418605</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="43">
@@ -7596,7 +7596,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T43" t="n">
         <v>21.9427045873282</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>576.7173427870933</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C44" t="n">
-        <v>299.6629919369898</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D44" t="n">
         <v>22.60864108688619</v>
@@ -7651,7 +7651,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L44" t="n">
         <v>345.6915471007955</v>
@@ -7663,7 +7663,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536996</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
         <v>1093.116282134284</v>
@@ -7672,28 +7672,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S44" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T44" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U44" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.13522936641</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="Y44" t="n">
-        <v>853.7716936371969</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>721.0718107414129</v>
+        <v>342.2841263065671</v>
       </c>
       <c r="C45" t="n">
-        <v>721.0718107414129</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D45" t="n">
-        <v>573.4835041003568</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G45" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H45" t="n">
         <v>21.9427045873282</v>
@@ -7739,10 +7739,10 @@
         <v>541.5612782974326</v>
       </c>
       <c r="N45" t="n">
-        <v>813.1022475656191</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O45" t="n">
-        <v>1080.98186654294</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7757,22 +7757,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>973.5863024080796</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>973.5863024080796</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V45" t="n">
-        <v>973.5863024080796</v>
+        <v>1007.053952344006</v>
       </c>
       <c r="W45" t="n">
-        <v>721.0718107414129</v>
+        <v>754.5394606773392</v>
       </c>
       <c r="X45" t="n">
-        <v>721.0718107414129</v>
+        <v>548.0125620829167</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.0718107414129</v>
+        <v>342.2841263065671</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="C46" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="D46" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="E46" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F46" t="n">
         <v>21.9427045873282</v>
@@ -7836,22 +7836,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="U46" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="V46" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="W46" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="X46" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
         <v>396.0321885132552</v>
@@ -8057,7 +8057,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>275.0438464930818</v>
@@ -8066,10 +8066,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>358.5418165849065</v>
       </c>
       <c r="N3" t="n">
-        <v>258.5531625267515</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>139.0313383333333</v>
@@ -8078,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8227,7 +8227,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
-        <v>454.8408013884635</v>
+        <v>454.8408013884634</v>
       </c>
       <c r="O5" t="n">
         <v>396.0321885132552</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,19 +8294,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>249.0736414352243</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>269.7194869079138</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8540,10 +8540,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>280.2420007006317</v>
       </c>
       <c r="N9" t="n">
-        <v>269.7194869079138</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8695,7 +8695,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
@@ -8780,13 +8780,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>218.0822725708051</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q12" t="n">
         <v>136.482229733871</v>
@@ -8929,13 +8929,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325457</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -9008,22 +9008,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>412.8644904155703</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N15" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>308.0588738982702</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>134.395403</v>
@@ -9254,16 +9254,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>136.0841230593931</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9488,19 +9488,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>280.2420007006317</v>
+        <v>281.0645842729788</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9719,16 +9719,16 @@
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>280.2420007006317</v>
       </c>
       <c r="N24" t="n">
-        <v>136.0841230593931</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9959,19 +9959,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>385.6739591155975</v>
+        <v>253.8740529730059</v>
       </c>
       <c r="M27" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>340.5513120381636</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10132,7 +10132,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10193,13 +10193,13 @@
         <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>338.5397817006614</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N30" t="n">
         <v>402.3419766228525</v>
@@ -10430,13 +10430,13 @@
         <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>338.5397817006614</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
         <v>402.3419766228525</v>
@@ -10445,7 +10445,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q33" t="n">
         <v>136.482229733871</v>
@@ -10673,10 +10673,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N36" t="n">
-        <v>218.0822725708051</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10907,22 +10907,22 @@
         <v>134.395403</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>315.5268646522953</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11150,13 +11150,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>146.9415753334873</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>136.482229733871</v>
@@ -11387,13 +11387,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>146.9415753334873</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C2" t="n">
-        <v>102.5898744074012</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
@@ -22603,16 +22603,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>129.272421624686</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22685,16 +22685,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>57.83558556915582</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>75.91620127950075</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>162.367609958282</v>
       </c>
       <c r="H4" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22807,7 +22807,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22840,13 +22840,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>131.7134935662653</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>219.2090502582742</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23029,10 +23029,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>163.6421351864358</v>
       </c>
       <c r="F8" t="n">
-        <v>165.7046859740575</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
         <v>140.5709580622284</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -23086,10 +23086,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23153,10 +23153,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>44.95881684231239</v>
       </c>
       <c r="U9" t="n">
-        <v>50.24743635262988</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23199,10 +23199,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>63.68426508357422</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -23238,7 +23238,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W10" t="n">
         <v>286.0925768874155</v>
@@ -23266,19 +23266,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>378.4898957654716</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23323,10 +23323,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y11" t="n">
-        <v>112.4032644096333</v>
+        <v>286.9487169456296</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>9.458801139478624</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>86.59321007988831</v>
       </c>
     </row>
     <row r="13">
@@ -23436,10 +23436,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>63.68426508357422</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
         <v>14.77440971783335</v>
@@ -23472,7 +23472,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23503,13 +23503,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>232.0609908044991</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H14" t="n">
         <v>338.1439033881534</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.00186300769272</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23563,7 +23563,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>135.2156897041255</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>185.6828511268877</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,13 +23667,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>142.7350090859033</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H16" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
         <v>88.83884492777894</v>
@@ -23709,7 +23709,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23740,22 +23740,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>347.4124432514906</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>263.4872010724284</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>165.5774571184738</v>
       </c>
       <c r="T18" t="n">
         <v>198.3825319082687</v>
@@ -23870,16 +23870,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>89.68797256260383</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,10 +23895,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>117.0670640461102</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -23940,7 +23940,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
@@ -23977,13 +23977,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>246.6975549801614</v>
+        <v>374.0839384632724</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
@@ -23992,7 +23992,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>118.0749563169465</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>161.8145739593763</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24153,7 +24153,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K22" t="n">
-        <v>3.197836007427327</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R22" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>222.3574069614225</v>
@@ -24211,7 +24211,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24220,10 +24220,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I23" t="n">
         <v>205.224307868124</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>83.32055315287501</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>309.1000129254336</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>129.3976151148116</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="25">
@@ -24426,10 +24426,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X25" t="n">
-        <v>47.22723329070087</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24493,25 +24493,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>76.2463096589521</v>
+        <v>291.9998474525524</v>
       </c>
       <c r="X26" t="n">
-        <v>329.4314950560484</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="27">
@@ -24575,10 +24575,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>44.16833865242023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,10 +24609,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.8895889301081</v>
@@ -24648,10 +24648,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>216.8354279895964</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -24697,7 +24697,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H29" t="n">
-        <v>338.1439033881534</v>
+        <v>97.21400301623245</v>
       </c>
       <c r="I29" t="n">
         <v>205.224307868124</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>106.7858740524955</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
         <v>222.9651171964204</v>
@@ -24748,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.937528653524851</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -24770,10 +24770,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
         <v>110.4625155221328</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>110.2328786007794</v>
       </c>
       <c r="T30" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24906,7 +24906,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1272324849117</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C32" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F32" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>414.8547654038309</v>
@@ -24940,7 +24940,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -24976,7 +24976,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>229.4541438514756</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
@@ -24998,7 +24998,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -25049,13 +25049,13 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>44.16833865242018</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>16.81139067155249</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I34" t="n">
-        <v>136.4794921647121</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J34" t="n">
         <v>88.83884492777894</v>
@@ -25125,7 +25125,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S34" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T34" t="n">
         <v>228.3324659915077</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.5778328468727</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>206.2069649383724</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25168,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
@@ -25219,10 +25219,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>17.6018688614447</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -25286,22 +25286,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>169.6662054382995</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25365,7 +25365,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
         <v>286.0522703910642</v>
@@ -25374,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -25399,7 +25399,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>87.60332115059845</v>
+        <v>109.7165980882301</v>
       </c>
       <c r="W38" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -25520,16 +25520,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.9983751210981</v>
+        <v>185.6828511268877</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>107.1794502458071</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25630,19 +25630,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>126.0551953070217</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E41" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>123.8860395253766</v>
       </c>
       <c r="U41" t="n">
         <v>251.4777635765444</v>
@@ -25690,7 +25690,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -25709,7 +25709,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25760,13 +25760,13 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>187.7468211486443</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.24743635262973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25836,10 +25836,10 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T43" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
         <v>286.0522703910642</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>108.9074498012072</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.7571713793149</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
         <v>86.50354346547167</v>
@@ -25997,22 +25997,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>76.06909421952169</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>142.7282667874751</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.8895889301081</v>
@@ -26076,7 +26076,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>195.5783607597038</v>
       </c>
       <c r="U46" t="n">
         <v>286.0522703910642</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502281.7567297172</v>
+        <v>502281.7567297173</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>502281.7567297172</v>
+        <v>502281.7567297171</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502281.7567297173</v>
+        <v>502281.7567297172</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502281.7567297171</v>
+        <v>502281.7567297172</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>502281.7567297173</v>
+        <v>502281.7567297172</v>
       </c>
     </row>
     <row r="13">
@@ -26322,7 +26322,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="E2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="F2" t="n">
         <v>112565.130497528</v>
@@ -26331,19 +26331,19 @@
         <v>112565.130497528</v>
       </c>
       <c r="H2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="I2" t="n">
         <v>112565.130497528</v>
       </c>
       <c r="J2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="K2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="L2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="M2" t="n">
         <v>112565.130497528</v>
@@ -26352,10 +26352,10 @@
         <v>112565.130497528</v>
       </c>
       <c r="O2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="P2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>8932.273136504818</v>
       </c>
       <c r="E4" t="n">
+        <v>8932.27313650482</v>
+      </c>
+      <c r="F4" t="n">
         <v>8932.273136504817</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8932.273136504818</v>
       </c>
-      <c r="G4" t="n">
-        <v>8932.273136504817</v>
-      </c>
       <c r="H4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="I4" t="n">
-        <v>8932.273136504817</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="J4" t="n">
-        <v>8932.27313650482</v>
+        <v>8932.273136504818</v>
       </c>
       <c r="K4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="L4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="M4" t="n">
         <v>8932.273136504818</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38590.01049308608</v>
+        <v>-50279.13951634197</v>
       </c>
       <c r="C6" t="n">
-        <v>53328.80187465373</v>
+        <v>41639.67285139787</v>
       </c>
       <c r="D6" t="n">
-        <v>53328.80187465373</v>
+        <v>41639.67285139787</v>
       </c>
       <c r="E6" t="n">
-        <v>86956.40187465375</v>
+        <v>75267.27285139782</v>
       </c>
       <c r="F6" t="n">
-        <v>86956.40187465372</v>
+        <v>75267.27285139788</v>
       </c>
       <c r="G6" t="n">
-        <v>86956.40187465375</v>
+        <v>75267.27285139785</v>
       </c>
       <c r="H6" t="n">
-        <v>86956.40187465373</v>
+        <v>75267.27285139782</v>
       </c>
       <c r="I6" t="n">
-        <v>86956.40187465373</v>
+        <v>75267.27285139782</v>
       </c>
       <c r="J6" t="n">
-        <v>15191.68938656749</v>
+        <v>3502.560363311588</v>
       </c>
       <c r="K6" t="n">
-        <v>86956.40187465375</v>
+        <v>75267.27285139779</v>
       </c>
       <c r="L6" t="n">
-        <v>86956.40187465375</v>
+        <v>75267.27285139782</v>
       </c>
       <c r="M6" t="n">
-        <v>86956.40187465373</v>
+        <v>75267.27285139785</v>
       </c>
       <c r="N6" t="n">
-        <v>86956.40187465372</v>
+        <v>75267.27285139785</v>
       </c>
       <c r="O6" t="n">
-        <v>86956.40187465373</v>
+        <v>75267.27285139782</v>
       </c>
       <c r="P6" t="n">
-        <v>86956.40187465375</v>
+        <v>75267.27285139779</v>
       </c>
     </row>
   </sheetData>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>140.6484434930818</v>
@@ -34786,10 +34786,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
+        <v>219.9611335109387</v>
+      </c>
+      <c r="N3" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N3" t="n">
-        <v>130.4949932455015</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>110.4929583612564</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35260,10 +35260,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="N9" t="n">
-        <v>141.6613176266638</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35415,7 +35415,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
         <v>242.9064974359549</v>
@@ -35500,13 +35500,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>90.0241032895551</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O12" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L14" t="n">
         <v>204.4954085367308</v>
       </c>
       <c r="M14" t="n">
-        <v>242.9064974359549</v>
+        <v>242.9064974359548</v>
       </c>
       <c r="N14" t="n">
         <v>231.1630643817873</v>
@@ -35728,22 +35728,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>177.4338266692982</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
         <v>81.99814951141209</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>8.025953778143149</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
@@ -36208,19 +36208,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>141.6613176266638</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="N24" t="n">
-        <v>8.025953778143149</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36679,19 +36679,19 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
-        <v>250.5834388302202</v>
+        <v>118.7835326876286</v>
       </c>
       <c r="M27" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>212.4931427569136</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>199.9590986266935</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N30" t="n">
         <v>274.2838073416025</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>199.9590986266935</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
         <v>274.2838073416025</v>
@@ -37165,7 +37165,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
+        <v>90.02410328955504</v>
+      </c>
+      <c r="N36" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N36" t="n">
-        <v>90.0241032895551</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>184.9018174233233</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>16.31652810451531</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>16.31652810451531</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
